--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed4/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.014000000000003</v>
+        <v>-7.982800000000003</v>
       </c>
     </row>
     <row r="5">
@@ -555,7 +555,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.9422</v>
+        <v>-22.01089999999999</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.160199999999996</v>
+        <v>-7.833699999999996</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.713799999999997</v>
+        <v>-7.690699999999996</v>
       </c>
     </row>
     <row r="12">
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.37840000000001</v>
+        <v>-22.23249999999999</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.09239999999999</v>
+        <v>-22.0493</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.301399999999996</v>
+        <v>-8.483799999999995</v>
       </c>
     </row>
     <row r="17">
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.19470000000001</v>
+        <v>-22.26100000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.73339999999996</v>
+        <v>-21.43779999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.142899999999999</v>
+        <v>-8.1652</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.076899999999991</v>
+        <v>-8.106199999999994</v>
       </c>
     </row>
     <row r="25">
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.49459999999999</v>
+        <v>-21.51449999999998</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -802,12 +802,12 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.600999999999996</v>
+        <v>-7.286299999999995</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.01749999999998</v>
+        <v>-21.99099999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.19739999999997</v>
+        <v>-21.58899999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -914,12 +914,12 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.978700000000001</v>
+        <v>-7.988900000000004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.37140000000001</v>
+        <v>-19.4777</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -928,12 +928,12 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.863700000000007</v>
+        <v>-7.759400000000003</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.02649999999999</v>
+        <v>-20.80369999999998</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1054,12 +1054,12 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.973799999999999</v>
+        <v>-7.869599999999997</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.45429999999999</v>
+        <v>-21.71449999999998</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.551799999999999</v>
+        <v>-7.795399999999997</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.958399999999992</v>
+        <v>-8.059600000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.769700000000001</v>
+        <v>-7.756999999999998</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.29990000000001</v>
+        <v>-22.22729999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.41960000000001</v>
+        <v>-22.39700000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.363199999999995</v>
+        <v>-7.273099999999999</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.395299999999994</v>
+        <v>-7.4566</v>
       </c>
     </row>
     <row r="68">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.60809999999998</v>
+        <v>-21.59119999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-9.400499999999996</v>
+        <v>-8.797699999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.66739999999998</v>
+        <v>-19.69089999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.09349999999999</v>
+        <v>-19.55419999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.523000000000004</v>
+        <v>-7.592800000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.558900000000001</v>
+        <v>-8.531599999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.6859</v>
+        <v>-21.73719999999999</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.59179999999999</v>
+        <v>-21.68539999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-8.160500000000001</v>
+        <v>-8.1351</v>
       </c>
     </row>
     <row r="92">
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.31710000000002</v>
+        <v>-21.31050000000003</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.50359999999999</v>
+        <v>-21.52789999999998</v>
       </c>
       <c r="B97" t="n">
         <v>6.4</v>
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.632799999999998</v>
+        <v>-7.378899999999996</v>
       </c>
     </row>
     <row r="98">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.025700000000002</v>
+        <v>-8.099700000000002</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.521699999999999</v>
+        <v>-7.789300000000001</v>
       </c>
     </row>
     <row r="105">
